--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -83,6 +83,19 @@
   </si>
   <si>
     <t>Record id,movie title, year of release and rating should match</t>
+  </si>
+  <si>
+    <t>1) Fetch the page title
+2) Compare it with the expected page title</t>
+  </si>
+  <si>
+    <t>1) page title should be "IMDB Top 250 - Imdb"</t>
+  </si>
+  <si>
+    <t>Verift title and the page</t>
+  </si>
+  <si>
+    <t>TC_04</t>
   </si>
 </sst>
 </file>
@@ -133,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -144,6 +157,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -425,18 +444,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -449,61 +466,78 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="5" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
